--- a/data/manual_question_mapping.xlsx
+++ b/data/manual_question_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajki\OneDrive\Documents\GitHub\hf-question-answer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F99A6-C075-4D87-88FC-CDC65876C787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC3496-B004-40E8-B8D6-E383A279485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="author1_labels" sheetId="1" r:id="rId1"/>
@@ -4809,9 +4809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1034"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14355,8 +14355,8 @@
     <hyperlink ref="B232" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -14367,8 +14367,8 @@
   </sheetPr>
   <dimension ref="A1:Y1034"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20769,7 +20769,7 @@
   </sheetPr>
   <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
